--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_43__Reeval_Sobol_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_43__Reeval_Sobol_Modell_1.2.xlsx
@@ -6118,25 +6118,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>-2.515167474746704</c:v>
+                  <c:v>-2.515161514282227</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>79.10643768310547</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.774140119552612</c:v>
+                  <c:v>2.774137258529663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.667814254760742</c:v>
+                  <c:v>-2.667817115783691</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>93.77236175537109</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.40006256103516</c:v>
+                  <c:v>76.40007019042969</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96.74807739257812</c:v>
+                  <c:v>96.74808502197266</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-2.131439924240112</c:v>
@@ -6145,7 +6145,7 @@
                   <c:v>0.5503291487693787</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44.04873657226562</c:v>
+                  <c:v>44.04874801635742</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>56.33917236328125</c:v>
@@ -6154,7 +6154,7 @@
                   <c:v>87.57235717773438</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.86300277709961</c:v>
+                  <c:v>11.86301326751709</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>100.7072525024414</c:v>
@@ -6166,25 +6166,25 @@
                   <c:v>51.62855529785156</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2.070314645767212</c:v>
+                  <c:v>-2.070308923721313</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>97.27643585205078</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>50.95151901245117</c:v>
+                  <c:v>50.95152282714844</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.5503291487693787</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>94.32595062255859</c:v>
+                  <c:v>94.32594299316406</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>100.4509811401367</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>94.68119812011719</c:v>
+                  <c:v>94.68118286132812</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>94.796142578125</c:v>
@@ -6199,7 +6199,7 @@
                   <c:v>85.94603729248047</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>70.19449615478516</c:v>
+                  <c:v>70.19448852539062</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.5503291487693787</c:v>
@@ -6208,16 +6208,16 @@
                   <c:v>22.17981910705566</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>49.49297332763672</c:v>
+                  <c:v>49.49296951293945</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-2.699039697647095</c:v>
+                  <c:v>-2.699045658111572</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-2.113357782363892</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-2.057976722717285</c:v>
+                  <c:v>-2.057973861694336</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-2.668899059295654</c:v>
@@ -6226,13 +6226,13 @@
                   <c:v>96.17201995849609</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>26.52554321289062</c:v>
+                  <c:v>26.52553367614746</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-2.489915370941162</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.019369721412659</c:v>
+                  <c:v>-1.01936674118042</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>99.12965393066406</c:v>
@@ -6244,10 +6244,10 @@
                   <c:v>94.00472259521484</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.361668348312378</c:v>
+                  <c:v>3.361677169799805</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>20.78793907165527</c:v>
+                  <c:v>20.78796577453613</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.5503291487693787</c:v>
@@ -6256,10 +6256,10 @@
                   <c:v>-2.453627824783325</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.060314178466797</c:v>
+                  <c:v>4.060310840606689</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>95.93292236328125</c:v>
+                  <c:v>95.93290710449219</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>-1.966234683990479</c:v>
@@ -6268,37 +6268,37 @@
                   <c:v>99.98310852050781</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>55.14065933227539</c:v>
+                  <c:v>55.14065170288086</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>63.87744140625</c:v>
+                  <c:v>63.87744522094727</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>87.29963684082031</c:v>
+                  <c:v>87.29962921142578</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.731823205947876</c:v>
+                  <c:v>2.731834888458252</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>47.97005844116211</c:v>
+                  <c:v>47.97005462646484</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>48.63327026367188</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>93.00340270996094</c:v>
+                  <c:v>93.00341796875</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>-2.612959384918213</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>44.37507629394531</c:v>
+                  <c:v>44.37506484985352</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>55.08821868896484</c:v>
+                  <c:v>55.08821487426758</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-6.249251365661621</c:v>
+                  <c:v>-6.249245643615723</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>-2.287249803543091</c:v>
@@ -6307,7 +6307,7 @@
                   <c:v>98.9503173828125</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-2.112446546554565</c:v>
+                  <c:v>-2.112449407577515</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>94.33053588867188</c:v>
@@ -6319,7 +6319,7 @@
                   <c:v>-2.669825077056885</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>47.5670051574707</c:v>
+                  <c:v>47.56701278686523</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>66.05955505371094</c:v>
@@ -6334,16 +6334,16 @@
                   <c:v>97.99778747558594</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>98.56465911865234</c:v>
+                  <c:v>98.56466674804688</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>33.56233215332031</c:v>
+                  <c:v>33.56233978271484</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>93.80312347412109</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>54.96207809448242</c:v>
+                  <c:v>54.96207046508789</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>96.35878753662109</c:v>
@@ -6355,22 +6355,22 @@
                   <c:v>89.10272216796875</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>100.7565536499023</c:v>
+                  <c:v>100.7565689086914</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-2.687639474868774</c:v>
+                  <c:v>-2.687642574310303</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>-2.212305068969727</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-2.657116651535034</c:v>
+                  <c:v>-2.657113790512085</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>92.86492156982422</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>98.54730987548828</c:v>
+                  <c:v>98.54732513427734</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>95.20999145507812</c:v>
@@ -6382,7 +6382,7 @@
                   <c:v>-2.106661081314087</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-2.391911745071411</c:v>
+                  <c:v>-2.391917705535889</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>92.947998046875</c:v>
@@ -6397,7 +6397,7 @@
                   <c:v>58.18949127197266</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>94.75273895263672</c:v>
+                  <c:v>94.75272369384766</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>-2.598796129226685</c:v>
@@ -6412,10 +6412,10 @@
                   <c:v>99.78836822509766</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-2.33296799659729</c:v>
+                  <c:v>-2.332970857620239</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>94.66197204589844</c:v>
+                  <c:v>94.66197967529297</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>0.5503291487693787</c:v>
@@ -6424,7 +6424,7 @@
                   <c:v>-2.599771976470947</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>72.35325622558594</c:v>
+                  <c:v>72.35324859619141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-2.515167474746704</v>
+        <v>-2.515161514282227</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.774140119552612</v>
+        <v>2.774137258529663</v>
       </c>
       <c r="G4">
         <v>105</v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-2.667814254760742</v>
+        <v>-2.667817115783691</v>
       </c>
       <c r="G5">
         <v>105</v>
@@ -7279,7 +7279,7 @@
         <v>84.02330000000001</v>
       </c>
       <c r="F7">
-        <v>76.40006256103516</v>
+        <v>76.40007019042969</v>
       </c>
       <c r="G7">
         <v>105</v>
@@ -7311,7 +7311,7 @@
         <v>98.1893</v>
       </c>
       <c r="F8">
-        <v>96.74807739257812</v>
+        <v>96.74808502197266</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>53.3608</v>
       </c>
       <c r="F11">
-        <v>44.04873657226562</v>
+        <v>44.04874801635742</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>11.86300277709961</v>
+        <v>11.86301326751709</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>-2.070314645767212</v>
+        <v>-2.070308923721313</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>34.9115</v>
       </c>
       <c r="F20">
-        <v>50.95151901245117</v>
+        <v>50.95152282714844</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>91.50530000000001</v>
       </c>
       <c r="F22">
-        <v>94.32595062255859</v>
+        <v>94.32594299316406</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>93.3062</v>
       </c>
       <c r="F24">
-        <v>94.68119812011719</v>
+        <v>94.68118286132812</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>69.5461</v>
       </c>
       <c r="F29">
-        <v>70.19449615478516</v>
+        <v>70.19448852539062</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>35.561</v>
       </c>
       <c r="F32">
-        <v>49.49297332763672</v>
+        <v>49.49296951293945</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>-2.699039697647095</v>
+        <v>-2.699045658111572</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-2.057976722717285</v>
+        <v>-2.057973861694336</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>26.52554321289062</v>
+        <v>26.52553367614746</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>-1.019369721412659</v>
+        <v>-1.01936674118042</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>3.361668348312378</v>
+        <v>3.361677169799805</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>20.78793907165527</v>
+        <v>20.78796577453613</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>4.060314178466797</v>
+        <v>4.060310840606689</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>89.79689999999999</v>
       </c>
       <c r="F49">
-        <v>95.93292236328125</v>
+        <v>95.93290710449219</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>47.7787</v>
       </c>
       <c r="F52">
-        <v>55.14065933227539</v>
+        <v>55.14065170288086</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>44.5448</v>
       </c>
       <c r="F53">
-        <v>63.87744140625</v>
+        <v>63.87744522094727</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>97.72280000000001</v>
       </c>
       <c r="F54">
-        <v>87.29963684082031</v>
+        <v>87.29962921142578</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>2.731823205947876</v>
+        <v>2.731834888458252</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>42.5481</v>
       </c>
       <c r="F56">
-        <v>47.97005844116211</v>
+        <v>47.97005462646484</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>89.467</v>
       </c>
       <c r="F58">
-        <v>93.00340270996094</v>
+        <v>93.00341796875</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>34.2752</v>
       </c>
       <c r="F60">
-        <v>44.37507629394531</v>
+        <v>44.37506484985352</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>56.4807</v>
       </c>
       <c r="F61">
-        <v>55.08821868896484</v>
+        <v>55.08821487426758</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-6.249251365661621</v>
+        <v>-6.249245643615723</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>31.0072</v>
       </c>
       <c r="F65">
-        <v>-2.112446546554565</v>
+        <v>-2.112449407577515</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>47.5670051574707</v>
+        <v>47.56701278686523</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>94.6035</v>
       </c>
       <c r="F74">
-        <v>98.56465911865234</v>
+        <v>98.56466674804688</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>33.56233215332031</v>
+        <v>33.56233978271484</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>54.96207809448242</v>
+        <v>54.96207046508789</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>98.0264</v>
       </c>
       <c r="F81">
-        <v>100.7565536499023</v>
+        <v>100.7565689086914</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>59.3491</v>
       </c>
       <c r="F82">
-        <v>-2.687639474868774</v>
+        <v>-2.687642574310303</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-2.657116651535034</v>
+        <v>-2.657113790512085</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>95.37090000000001</v>
       </c>
       <c r="F86">
-        <v>98.54730987548828</v>
+        <v>98.54732513427734</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>-2.391911745071411</v>
+        <v>-2.391917705535889</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -9051,7 +9051,7 @@
         <v>93.8582</v>
       </c>
       <c r="F95">
-        <v>94.75273895263672</v>
+        <v>94.75272369384766</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>-2.33296799659729</v>
+        <v>-2.332970857620239</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9171,7 +9171,7 @@
         <v>97.31619999999999</v>
       </c>
       <c r="F101">
-        <v>94.66197204589844</v>
+        <v>94.66197967529297</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9231,7 +9231,7 @@
         <v>76.82470000000001</v>
       </c>
       <c r="F104">
-        <v>72.35325622558594</v>
+        <v>72.35324859619141</v>
       </c>
     </row>
     <row r="105" spans="1:6">
